--- a/storage/bulk-payments-documentation.xlsx
+++ b/storage/bulk-payments-documentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>Field Name</t>
   </si>
@@ -110,18 +110,12 @@
     <t>M/F</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
     <t>This field represents the Address of the member.</t>
   </si>
   <si>
-    <t>English Letters,Spaces,commas,#,_,.(dot)</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>std_code</t>
   </si>
   <si>
-    <t>This field requires the STD CODE that would precede the member’s Landline number.</t>
-  </si>
-  <si>
     <t>landline_code</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
     <t xml:space="preserve">This field represents the MOBILE number of the member for any further </t>
   </si>
   <si>
-    <t>Numbers(9999999999)</t>
-  </si>
-  <si>
     <t>College</t>
   </si>
   <si>
@@ -240,6 +228,47 @@
   </si>
   <si>
     <t>Oak Ridge Technical Institute</t>
+  </si>
+  <si>
+    <t>This field represents the the branch of the course or the specific field in which the student is pursuing the course.</t>
+  </si>
+  <si>
+    <t>English Letters,Spaces,Special Symbols(.,#_)</t>
+  </si>
+  <si>
+    <t>For B.Tech0(Computer Science)-&gt;Computer Science is the branch</t>
+  </si>
+  <si>
+    <t>English Letters,Special Symbols(.,#_)</t>
+  </si>
+  <si>
+    <t>1 for 1 Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 for Mr
+2 for Miss
+3 for Mrs
+4 for Dr
+5 for Prof
+</t>
+  </si>
+  <si>
+    <t>M  for Male, F for Female</t>
+  </si>
+  <si>
+    <t>Numbers(10 digit)</t>
+  </si>
+  <si>
+    <t>3 for 3 Years duration</t>
+  </si>
+  <si>
+    <t>This field requires the landline CODE that would precede the member’s Landline number.</t>
+  </si>
+  <si>
+    <t>This field requires the STD CODE that would precede the member’s Phone number.</t>
+  </si>
+  <si>
+    <t>This field represents the amount payable by an individual student to be the member of CSI.</t>
   </si>
 </sst>
 </file>
@@ -374,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -404,6 +433,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -688,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,13 +729,12 @@
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="4" max="5" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -736,11 +767,11 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -753,8 +784,8 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
+      <c r="E7" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
@@ -771,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
@@ -788,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
@@ -801,9 +832,11 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
@@ -816,9 +849,11 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
@@ -852,55 +887,55 @@
         <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="1">
         <v>110055</v>
@@ -908,61 +943,67 @@
     </row>
     <row r="17" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E17" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E18" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1">
         <v>11</v>
@@ -970,33 +1011,33 @@
     </row>
     <row r="21" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1">
         <v>9878876556</v>
@@ -1004,76 +1045,84 @@
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E27" s="1">
         <v>1500</v>
